--- a/Carbon_backend/dataset/湖北碳市场数据表格.xlsx
+++ b/Carbon_backend/dataset/湖北碳市场数据表格.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ML_DL_learning\DataSet\碳市场数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ML_DL_learning\Project\Carbon_Price\Carbon_backend\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95B084C-B9CF-4335-AF8C-456803B4055E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB92D17C-C82C-47AF-8475-FAF75FD021A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24398,8 +24398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1743"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A1739" workbookViewId="0">
+      <selection activeCell="I1741" sqref="I1741"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -74897,7 +74897,7 @@
         <v>7988</v>
       </c>
       <c r="I1741" s="1" t="s">
-        <v>7989</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1742" spans="1:9" x14ac:dyDescent="0.25">
